--- a/Assets/File/Gacha/LotteryTable.xlsx
+++ b/Assets/File/Gacha/LotteryTable.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -26,6 +26,9 @@
     <t>確率(通常)のデータパス</t>
   </si>
   <si>
+    <t>確率(10回目)のデータパス</t>
+  </si>
+  <si>
     <t>Rのラインナップデータパス</t>
   </si>
   <si>
@@ -63,6 +66,96 @@
   </si>
   <si>
     <t>アイテム名</t>
+  </si>
+  <si>
+    <t>サムネイルパス</t>
+  </si>
+  <si>
+    <t>グミ</t>
+  </si>
+  <si>
+    <t>Gumi</t>
+  </si>
+  <si>
+    <t>ポップコーン</t>
+  </si>
+  <si>
+    <t>Popcorn</t>
+  </si>
+  <si>
+    <t>カップケーキ</t>
+  </si>
+  <si>
+    <t>Cupcake</t>
+  </si>
+  <si>
+    <t>甘納豆</t>
+  </si>
+  <si>
+    <t>Amanattou</t>
+  </si>
+  <si>
+    <t>チョコレート</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>アイス</t>
+  </si>
+  <si>
+    <t>Icecandy</t>
+  </si>
+  <si>
+    <t>プリン</t>
+  </si>
+  <si>
+    <t>Purin</t>
+  </si>
+  <si>
+    <t>ぜんざい</t>
+  </si>
+  <si>
+    <t>Oshiruko</t>
+  </si>
+  <si>
+    <t>みつ豆</t>
+  </si>
+  <si>
+    <t>Mitsumame</t>
+  </si>
+  <si>
+    <t>ドーナツ</t>
+  </si>
+  <si>
+    <t>Doughnut</t>
+  </si>
+  <si>
+    <t>サムネイル名</t>
+  </si>
+  <si>
+    <t>タルト</t>
+  </si>
+  <si>
+    <t>Tarte</t>
+  </si>
+  <si>
+    <t>パフェ</t>
+  </si>
+  <si>
+    <t>Pafe</t>
+  </si>
+  <si>
+    <t>ハニートースト</t>
+  </si>
+  <si>
+    <t>HoneyToast</t>
+  </si>
+  <si>
+    <t>ケーキ</t>
+  </si>
+  <si>
+    <t>Shortcake</t>
   </si>
 </sst>
 </file>
@@ -357,10 +450,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="1.88"/>
-    <col customWidth="1" min="3" max="3" width="24.0"/>
-    <col customWidth="1" min="4" max="4" width="22.63"/>
-    <col customWidth="1" min="5" max="5" width="32.5"/>
-    <col customWidth="1" min="6" max="6" width="27.0"/>
+    <col customWidth="1" min="3" max="4" width="24.0"/>
+    <col customWidth="1" min="5" max="5" width="22.63"/>
+    <col customWidth="1" min="6" max="6" width="32.5"/>
+    <col customWidth="1" min="7" max="7" width="27.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -382,6 +475,9 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3"/>
@@ -389,7 +485,7 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -399,6 +495,9 @@
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -425,15 +524,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5">
         <v>82.0</v>
@@ -441,7 +540,7 @@
     </row>
     <row r="3">
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5">
         <v>15.0</v>
@@ -449,7 +548,7 @@
     </row>
     <row r="4">
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5">
         <v>3.0</v>
@@ -471,6 +570,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="1.88"/>
+    <col customWidth="1" min="5" max="5" width="19.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -481,10 +581,83 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -503,6 +676,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="1.88"/>
+    <col customWidth="1" min="5" max="5" width="19.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -513,10 +687,83 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -535,6 +782,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="1.88"/>
+    <col customWidth="1" min="5" max="5" width="24.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,10 +793,69 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/File/Gacha/LotteryTable.xlsx
+++ b/Assets/File/Gacha/LotteryTable.xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Test\Test\Assets\File\Gacha\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D34CFF-6CBA-42A5-9DA1-F9332C27286B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28950" yWindow="3900" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="GachaInfo" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Rarity" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="ItemRare" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="ItemSuperRare" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="ItemSpecialSuperRare" sheetId="5" r:id="rId8"/>
+    <sheet name="GachaInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="Rarity" sheetId="2" r:id="rId2"/>
+    <sheet name="ItemRare" sheetId="3" r:id="rId3"/>
+    <sheet name="ItemSuperRare" sheetId="4" r:id="rId4"/>
+    <sheet name="ItemSpecialSuperRare" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -161,26 +170,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -189,64 +208,55 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -436,27 +446,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="1.88"/>
-    <col customWidth="1" min="3" max="4" width="24.0"/>
-    <col customWidth="1" min="5" max="5" width="22.63"/>
-    <col customWidth="1" min="6" max="6" width="32.5"/>
-    <col customWidth="1" min="7" max="7" width="27.0"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="3" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,10 +494,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -494,32 +509,37 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="1.88"/>
-    <col customWidth="1" min="2" max="2" width="14.5"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -530,50 +550,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="5">
-        <v>82.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="5">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="1.88"/>
-    <col customWidth="1" min="5" max="5" width="19.13"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -590,96 +612,98 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="1.88"/>
-    <col customWidth="1" min="5" max="5" width="19.38"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -696,96 +720,98 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="1.88"/>
-    <col customWidth="1" min="5" max="5" width="24.0"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -802,63 +828,64 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/File/Gacha/LotteryTable.xlsx
+++ b/Assets/File/Gacha/LotteryTable.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Test\Test\Assets\File\Gacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D34CFF-6CBA-42A5-9DA1-F9332C27286B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADA7F30-5BD9-4AD4-9EF8-B130D6B58B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28950" yWindow="3900" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaInfo" sheetId="1" r:id="rId1"/>
     <sheet name="Rarity" sheetId="2" r:id="rId2"/>
-    <sheet name="ItemRare" sheetId="3" r:id="rId3"/>
-    <sheet name="ItemSuperRare" sheetId="4" r:id="rId4"/>
-    <sheet name="ItemSpecialSuperRare" sheetId="5" r:id="rId5"/>
+    <sheet name="LastRarity" sheetId="6" r:id="rId3"/>
+    <sheet name="ItemRare" sheetId="3" r:id="rId4"/>
+    <sheet name="ItemSuperRare" sheetId="4" r:id="rId5"/>
+    <sheet name="ItemSpecialSuperRare" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -47,9 +48,6 @@
     <t>SSRのラインナップデータパス</t>
   </si>
   <si>
-    <t>Database/Gacha/GachaLottery</t>
-  </si>
-  <si>
     <t>Database/Gacha/LineupRare</t>
   </si>
   <si>
@@ -165,13 +163,40 @@
   </si>
   <si>
     <t>Shortcake</t>
+  </si>
+  <si>
+    <r>
+      <t>Database/Gacha/Gacha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>Default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Lottery</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Database/Gacha/GachaLastLottery</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -202,6 +227,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -238,6 +282,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -459,13 +509,14 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="3" max="4" width="24" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.7109375" bestFit="1" customWidth="1"/>
@@ -499,20 +550,20 @@
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -531,7 +582,9 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -544,15 +597,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5">
         <v>82</v>
@@ -560,7 +613,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5">
         <v>15</v>
@@ -568,7 +621,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
@@ -581,6 +634,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90541DE0-D7CF-4AD1-A530-DE515CBE7F86}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -603,13 +711,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -617,13 +725,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="5">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -631,13 +739,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5">
         <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -645,13 +753,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="5">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -659,13 +767,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="5">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -673,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" s="5">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -711,13 +819,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -725,13 +833,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="5">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -739,13 +847,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D3" s="5">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -753,13 +861,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" s="5">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -767,13 +875,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="5">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" s="5">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -781,13 +889,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" s="5">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -819,13 +927,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -833,13 +941,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5">
         <v>25</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -847,13 +955,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5">
         <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -861,13 +969,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="5">
         <v>25</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -875,13 +983,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="5">
         <v>25</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
